--- a/Configs/HomeAlive.xlsx
+++ b/Configs/HomeAlive.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="23">
   <si>
     <t>唯一标识</t>
   </si>
@@ -38,12 +38,6 @@
     <t>位置</t>
   </si>
   <si>
-    <t>特性</t>
-  </si>
-  <si>
-    <t>表情</t>
-  </si>
-  <si>
     <t>id</t>
   </si>
   <si>
@@ -53,19 +47,55 @@
     <t>pos</t>
   </si>
   <si>
-    <t>trait</t>
-  </si>
-  <si>
-    <t>emotion</t>
-  </si>
-  <si>
     <t>string</t>
   </si>
   <si>
-    <t>string[]</t>
-  </si>
-  <si>
-    <t>表情,表情</t>
+    <t>bingxiang</t>
+  </si>
+  <si>
+    <t>冰箱</t>
+  </si>
+  <si>
+    <t>厨房</t>
+  </si>
+  <si>
+    <t>lajitong</t>
+  </si>
+  <si>
+    <t>智能垃圾桶</t>
+  </si>
+  <si>
+    <t>卧室</t>
+  </si>
+  <si>
+    <t>saodijiqiren</t>
+  </si>
+  <si>
+    <t>扫地机器人</t>
+  </si>
+  <si>
+    <t>xiyiji</t>
+  </si>
+  <si>
+    <t>滚筒洗衣机</t>
+  </si>
+  <si>
+    <t>shaoshuihu</t>
+  </si>
+  <si>
+    <t>烧水壶</t>
+  </si>
+  <si>
+    <t>kongtiao</t>
+  </si>
+  <si>
+    <t>空调</t>
+  </si>
+  <si>
+    <t>shizhong</t>
+  </si>
+  <si>
+    <t>时钟</t>
   </si>
 </sst>
 </file>
@@ -1047,15 +1077,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" outlineLevelRow="4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" outlineLevelCol="2"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1065,79 +1095,104 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="C2" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="1" t="s">
+    <row r="3" spans="1:3">
+      <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="B4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="1" t="s">
+    <row r="5" spans="1:3">
+      <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="1" t="s">
+      <c r="B5" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="C5" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="1">
-        <v>1001</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="1" t="s">
+    <row r="6" spans="1:3">
+      <c r="A6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="1">
-        <v>1002</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>4</v>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Configs/HomeAlive.xlsx
+++ b/Configs/HomeAlive.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16680" windowHeight="8172"/>
+    <workbookView windowWidth="22188" windowHeight="9060"/>
   </bookViews>
   <sheets>
     <sheet name="Config" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="25">
   <si>
     <t>唯一标识</t>
   </si>
@@ -38,6 +38,9 @@
     <t>位置</t>
   </si>
   <si>
+    <t>失败台词</t>
+  </si>
+  <si>
     <t>id</t>
   </si>
   <si>
@@ -47,19 +50,20 @@
     <t>pos</t>
   </si>
   <si>
+    <t>failure_lines</t>
+  </si>
+  <si>
     <t>string</t>
   </si>
   <si>
-    <t>bingxiang</t>
-  </si>
-  <si>
     <t>冰箱</t>
   </si>
   <si>
     <t>厨房</t>
   </si>
   <si>
-    <t>lajitong</t>
+    <t>你QQ农场响了。
+你菜死了</t>
   </si>
   <si>
     <t>智能垃圾桶</t>
@@ -68,34 +72,43 @@
     <t>卧室</t>
   </si>
   <si>
-    <t>saodijiqiren</t>
+    <t>踩一个人的脚他就会张嘴。
+所以人的本质是一个脚踏垃圾桶</t>
   </si>
   <si>
     <t>扫地机器人</t>
   </si>
   <si>
-    <t>xiyiji</t>
+    <t>为什么橙子从房间退出来会变成果汁？
+因为橙这一退便是一杯汁</t>
   </si>
   <si>
     <t>滚筒洗衣机</t>
   </si>
   <si>
-    <t>shaoshuihu</t>
+    <t>心机之蛙一直摸你肚子。
+——滚筒洗衣机</t>
   </si>
   <si>
     <t>烧水壶</t>
   </si>
   <si>
-    <t>kongtiao</t>
+    <t>谁家水烧开了？
+沸物</t>
   </si>
   <si>
     <t>空调</t>
   </si>
   <si>
-    <t>shizhong</t>
+    <t>什么东西吃起来凉凉的，还会咯牙？
+空调</t>
   </si>
   <si>
     <t>时钟</t>
+  </si>
+  <si>
+    <t>一天24小时，大家什么时候最着急？
+12：59，因为快一点啦</t>
   </si>
 </sst>
 </file>
@@ -724,12 +737,21 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -790,13 +812,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/customStorage/customStorage.xml><?xml version="1.0" encoding="utf-8"?>
-<customStorage xmlns="https://web.wps.cn/et/2018/main">
-  <book/>
-  <sheets/>
-</customStorage>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1077,122 +1092,155 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" outlineLevelCol="3"/>
+  <cols>
+    <col min="4" max="4" width="39.1818181818182" style="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="1" t="s">
+    <row r="2" spans="1:4">
+      <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="C2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>6</v>
+    <row r="3" spans="1:4">
+      <c r="A3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="1" t="s">
+    <row r="4" ht="31.2" spans="1:4">
+      <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="B4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="1" t="s">
+    <row r="5" ht="31.2" spans="1:4">
+      <c r="A5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" ht="31.2" spans="1:4">
+      <c r="A6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" ht="31.2" spans="1:4">
+      <c r="A7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>12</v>
+      <c r="D7" s="4" t="s">
+        <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="1" t="s">
+    <row r="8" ht="31.2" spans="1:4">
+      <c r="A8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" ht="31.2" spans="1:4">
+      <c r="A9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>12</v>
+      <c r="D9" s="4" t="s">
+        <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>12</v>
+    <row r="10" ht="31.2" spans="1:4">
+      <c r="A10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
